--- a/datasets/FIFA_Ranking_Player_Value_Aug_2023.xlsx
+++ b/datasets/FIFA_Ranking_Player_Value_Aug_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\sports_data_sci\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C272E640-E8EE-433E-A244-731BAB89D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA89F28C-8259-4BA0-851F-62DB985C5F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{63C821D0-80F8-4C36-8988-143D1F071F78}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Victor Osimhen</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
     <t>Bryan Mbeumo</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Chancel Mbemba</t>
   </si>
   <si>
-    <t>East Africa</t>
-  </si>
-  <si>
     <t>Farouk Miya</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Nicolas Jackson</t>
+  </si>
+  <si>
+    <t>ECOWAS</t>
+  </si>
+  <si>
+    <t>EAC</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -605,12 +605,12 @@
         <v>120000000</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -622,12 +622,12 @@
         <v>30000000</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -639,12 +639,12 @@
         <v>35000000</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -656,12 +656,12 @@
         <v>40000000</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -673,12 +673,12 @@
         <v>35000000</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -690,12 +690,12 @@
         <v>30000000</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -707,12 +707,12 @@
         <v>20000000</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -724,12 +724,12 @@
         <v>14000000</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -741,12 +741,12 @@
         <v>11000000</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -758,12 +758,12 @@
         <v>4000000</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -775,12 +775,12 @@
         <v>5000000</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -792,12 +792,12 @@
         <v>6000000</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -809,12 +809,12 @@
         <v>9000000</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -826,12 +826,12 @@
         <v>8000000</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -843,12 +843,12 @@
         <v>12000000</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -860,12 +860,12 @@
         <v>3500000</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -877,12 +877,12 @@
         <v>900000</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -894,12 +894,12 @@
         <v>1000000</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -911,12 +911,12 @@
         <v>2500000</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -928,12 +928,12 @@
         <v>700000</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -945,12 +945,12 @@
         <v>2200000</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -962,12 +962,12 @@
         <v>300000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -979,15 +979,15 @@
         <v>35000000</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>85</v>
@@ -996,7 +996,7 @@
         <v>10000000</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
